--- a/project/ipo.xlsx
+++ b/project/ipo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
   <si>
     <t>I</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Premises City</t>
   </si>
   <si>
-    <t>Where no of alarms &gt; average no of alarms</t>
-  </si>
-  <si>
     <t>Question 8</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
     <t xml:space="preserve">    Client Type</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Account total = highest account total</t>
   </si>
   <si>
@@ -209,9 +203,6 @@
     <t>Client Table</t>
   </si>
   <si>
-    <t>Join Client Table and Premises Table</t>
-  </si>
-  <si>
     <t>Client Type ID = 3</t>
   </si>
   <si>
@@ -224,13 +215,34 @@
     <t xml:space="preserve">    Client TBL</t>
   </si>
   <si>
-    <t>join Client tbl to premises tbl</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Client ID</t>
   </si>
   <si>
     <t>No of keyholders &gt; average no of keyholders</t>
+  </si>
+  <si>
+    <t>Question 10</t>
+  </si>
+  <si>
+    <t>Question 11</t>
+  </si>
+  <si>
+    <t>for each client type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Total</t>
+  </si>
+  <si>
+    <t>Total No. Of Clients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    NoOfAlarms</t>
+  </si>
+  <si>
+    <t>no of alarms &gt; average no of alarms</t>
+  </si>
+  <si>
+    <t>PremisesCity is not "Sligo"</t>
   </si>
 </sst>
 </file>
@@ -500,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -559,13 +571,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -882,20 +897,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D68" sqref="D68"/>
+      <selection pane="bottomRight" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="1.7109375" customWidth="1"/>
-    <col min="3" max="5" width="47.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" style="22" customWidth="1"/>
+    <col min="4" max="5" width="47.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -926,18 +942,18 @@
         <v>8</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>52</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="23" t="s">
-        <v>53</v>
+      <c r="C5" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="17"/>
@@ -959,7 +975,7 @@
       <c r="E7" s="15"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="9"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
     </row>
@@ -972,12 +988,12 @@
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="13" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="14" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="15"/>
@@ -991,7 +1007,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>13</v>
@@ -1031,7 +1047,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>13</v>
@@ -1074,329 +1090,348 @@
       <c r="D23" s="8"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="13" t="s">
+      <c r="D26" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="17" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C27" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="10"/>
-      <c r="E27" s="17"/>
+      <c r="E27" s="17" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="17"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="19" t="s">
-        <v>19</v>
+      <c r="C29" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="14" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="D31" s="8"/>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="13" t="s">
+      <c r="D33" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C34" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="17"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="19" t="s">
-        <v>46</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="17"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="16" t="s">
-        <v>47</v>
+      <c r="C36" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="17"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="17"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="13" t="s">
+      <c r="D40" s="18"/>
+      <c r="E40" s="13" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C40" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="17" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C41" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C42" s="19" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="17"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="14" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="15"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="D44" s="10"/>
+      <c r="E44" s="17"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="14"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C48" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="17"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="15"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C52" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C53" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="17" t="s">
+      <c r="D54" s="10"/>
+      <c r="E54" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C52" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D53" s="10"/>
-      <c r="E53" s="17"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C54" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="17"/>
-    </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="17"/>
     </row>
-    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="15"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C58" s="11" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C56" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="17"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C57" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="17"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="15"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="12" t="s">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C60" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="D60" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C59" s="16" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C61" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C62" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="10"/>
+      <c r="E62" s="17"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C63" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="10"/>
+      <c r="E63" s="17"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C66" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C67" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E59" s="17" t="s">
+      <c r="E67" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C60" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="17"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C61" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="17"/>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="15"/>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C64" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C65" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" s="10"/>
-      <c r="E65" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="15"/>
+    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project/ipo.xlsx
+++ b/project/ipo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="81">
   <si>
     <t>I</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Question 3</t>
   </si>
   <si>
-    <t xml:space="preserve">      ClientName</t>
-  </si>
-  <si>
     <t>Question 4</t>
   </si>
   <si>
@@ -71,18 +68,9 @@
     <t>AccountTotal</t>
   </si>
   <si>
-    <t xml:space="preserve">    PremisesID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    PremisesCity</t>
-  </si>
-  <si>
     <t>PremisesCity</t>
   </si>
   <si>
-    <t xml:space="preserve">    AccountTotal</t>
-  </si>
-  <si>
     <t>PremisesAccountsTbl</t>
   </si>
   <si>
@@ -110,24 +98,12 @@
     <t>PremisesTBL</t>
   </si>
   <si>
-    <t xml:space="preserve">    ClientName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ClientID</t>
-  </si>
-  <si>
     <t>Question 6</t>
   </si>
   <si>
-    <t xml:space="preserve">    ClientPassword</t>
-  </si>
-  <si>
     <t>Premises TBL</t>
   </si>
   <si>
-    <t xml:space="preserve">    City</t>
-  </si>
-  <si>
     <t>Premises ID</t>
   </si>
   <si>
@@ -146,12 +122,6 @@
     <t>PremisesKeyholderTBL</t>
   </si>
   <si>
-    <t xml:space="preserve">    Keyholder ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    KeyholderName</t>
-  </si>
-  <si>
     <t>KeyholderID</t>
   </si>
   <si>
@@ -164,27 +134,15 @@
     <t>External Data</t>
   </si>
   <si>
-    <t xml:space="preserve">    UserID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    NewPassword</t>
-  </si>
-  <si>
     <t>Where No of premises &gt;  external NoOfPremises</t>
   </si>
   <si>
-    <t xml:space="preserve">    NoOfPremises</t>
-  </si>
-  <si>
     <t>External Input</t>
   </si>
   <si>
     <t>ClientTypeID = External Client Type</t>
   </si>
   <si>
-    <t xml:space="preserve">    Client Type</t>
-  </si>
-  <si>
     <t>Account total = highest account total</t>
   </si>
   <si>
@@ -206,18 +164,9 @@
     <t>Client Type ID = 3</t>
   </si>
   <si>
-    <t xml:space="preserve">    Premises City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Client Name</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Client TBL</t>
   </si>
   <si>
-    <t xml:space="preserve">    Client ID</t>
-  </si>
-  <si>
     <t>No of keyholders &gt; average no of keyholders</t>
   </si>
   <si>
@@ -230,26 +179,101 @@
     <t>for each client type</t>
   </si>
   <si>
-    <t xml:space="preserve">    Total</t>
-  </si>
-  <si>
     <t>Total No. Of Clients</t>
   </si>
   <si>
-    <t xml:space="preserve">    NoOfAlarms</t>
-  </si>
-  <si>
     <t>no of alarms &gt; average no of alarms</t>
   </si>
   <si>
     <t>PremisesCity is not "Sligo"</t>
+  </si>
+  <si>
+    <t>matching join</t>
+  </si>
+  <si>
+    <t>non matching join</t>
+  </si>
+  <si>
+    <t>ClientTypeID</t>
+  </si>
+  <si>
+    <t>Client Type</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>NoOfAlarms</t>
+  </si>
+  <si>
+    <t>ClientID</t>
+  </si>
+  <si>
+    <t>ClientPassword</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>NewPassword</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>NoOfPremises</t>
+  </si>
+  <si>
+    <t>Keyholder ID</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>Not Asked For</t>
+  </si>
+  <si>
+    <t>remove duplicate rows</t>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t>Matching Join</t>
+  </si>
+  <si>
+    <t>There should be a second join here</t>
+  </si>
+  <si>
+    <t>matching</t>
+  </si>
+  <si>
+    <t>PremisesCity is "Sligo"</t>
+  </si>
+  <si>
+    <t>ClientType TBL</t>
+  </si>
+  <si>
+    <t>Client Type Description</t>
+  </si>
+  <si>
+    <t>two tables --&gt; join --&gt; matching</t>
+  </si>
+  <si>
+    <t>Client Type Description  = high level</t>
+  </si>
+  <si>
+    <t>all that are high level but not in sligo</t>
+  </si>
+  <si>
+    <t>No Of Keyholders</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,8 +306,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,8 +350,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -508,11 +572,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -559,9 +638,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -571,20 +647,86 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -598,6 +740,112 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Right Brace 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10563225" y="11610975"/>
+          <a:ext cx="514349" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2457451</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2990851</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Curved Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9244013" y="12834937"/>
+          <a:ext cx="1495425" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -16879"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -897,21 +1145,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D62" sqref="D62"/>
+      <selection pane="bottomRight" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="1.7109375" customWidth="1"/>
-    <col min="3" max="3" width="47.5703125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" style="20" customWidth="1"/>
     <col min="4" max="5" width="47.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -942,40 +1191,51 @@
         <v>8</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="20" t="s">
-        <v>52</v>
+      <c r="C5" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="17"/>
-      <c r="G5" s="1"/>
+      <c r="E5" s="16"/>
+      <c r="G5" s="27" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="17"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="G6" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="23"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
     </row>
@@ -988,12 +1248,12 @@
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="13" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="15"/>
@@ -1001,39 +1261,39 @@
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="13" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="14" t="s">
-        <v>18</v>
+      <c r="C16" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="15"/>
@@ -1041,108 +1301,114 @@
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="18" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="17"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="14" t="s">
-        <v>15</v>
+      <c r="C23" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="22" t="s">
-        <v>70</v>
+      <c r="C24" s="20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="18" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="17"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="17"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="17"/>
+      <c r="E30" s="16"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="14" t="s">
-        <v>15</v>
+      <c r="C31" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="15"/>
@@ -1150,53 +1416,55 @@
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>56</v>
+        <v>22</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="16" t="s">
-        <v>29</v>
+      <c r="C34" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>58</v>
+        <v>43</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="16" t="s">
-        <v>31</v>
+      <c r="C35" s="30" t="s">
+        <v>61</v>
       </c>
       <c r="D35" s="10"/>
-      <c r="E35" s="17"/>
+      <c r="E35" s="16"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="19" t="s">
-        <v>45</v>
+      <c r="C36" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="D36" s="10"/>
-      <c r="E36" s="17"/>
+      <c r="E36" s="26" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="16" t="s">
-        <v>46</v>
+      <c r="C37" s="21" t="s">
+        <v>62</v>
       </c>
       <c r="D37" s="10"/>
-      <c r="E37" s="17"/>
+      <c r="E37" s="16"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="14" t="s">
-        <v>47</v>
+      <c r="C38" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="15"/>
@@ -1204,47 +1472,49 @@
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="18"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C42" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="17"/>
+      <c r="D43" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="16"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C44" s="16" t="s">
-        <v>29</v>
+      <c r="C44" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="D44" s="10"/>
-      <c r="E44" s="17"/>
+      <c r="E44" s="16"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="14"/>
@@ -1254,187 +1524,285 @@
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C48" s="16" t="s">
-        <v>15</v>
+      <c r="C48" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="D48" s="10"/>
-      <c r="E48" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="16" t="s">
-        <v>33</v>
+      <c r="E48" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="D49" s="10"/>
-      <c r="E49" s="17"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="14" t="s">
-        <v>70</v>
+      <c r="E49" s="16"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="23" t="s">
+        <v>59</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="15"/>
     </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C52" s="11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="20" t="s">
-        <v>49</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="D53" s="10"/>
-      <c r="E53" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C54" s="21" t="s">
-        <v>38</v>
+      <c r="E53" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="D54" s="10"/>
-      <c r="E54" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="16" t="s">
-        <v>40</v>
+      <c r="E54" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="D55" s="10"/>
-      <c r="E55" s="17"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C56" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D56" s="10"/>
-      <c r="E56" s="17"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="19" t="s">
-        <v>39</v>
+      <c r="E55" s="16"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C57" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="D57" s="10"/>
-      <c r="E57" s="17"/>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="14" t="s">
-        <v>49</v>
+      <c r="E57" s="16"/>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="15"/>
     </row>
-    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C60" s="11" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C61" s="16" t="s">
-        <v>63</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C61" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="D61" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C62" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="10"/>
+      <c r="E62" s="16"/>
+      <c r="G62" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E61" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C62" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="17"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C63" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="17"/>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="14" t="s">
-        <v>60</v>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C63" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" s="16"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="15"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C66" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C67" s="16" t="s">
-        <v>63</v>
+      <c r="C67" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E67" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="15"/>
+        <v>50</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="43"/>
+      <c r="C68" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E68" s="44"/>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="15"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C71" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C72" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E72" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C73" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="29"/>
+      <c r="E73" s="34"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C74" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E74" s="34"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C75" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" s="29"/>
+      <c r="E75" s="34"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C76" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D76" s="29"/>
+      <c r="E76" s="34"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C77" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E77" s="34"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C78" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E78" s="34"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C79" s="35"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="34"/>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="36"/>
+      <c r="D80" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E80" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>